--- a/MyStoreProject/src/test/resources/TestData/TestData.xlsx
+++ b/MyStoreProject/src/test/resources/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Email" sheetId="3" r:id="rId3"/>
     <sheet name="ProductDetails" sheetId="4" r:id="rId4"/>
     <sheet name="SearchProduct" sheetId="6" r:id="rId5"/>
+    <sheet name="AccountCreationData" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
   <si>
     <t>TestCases</t>
   </si>
@@ -200,6 +201,93 @@
   </si>
   <si>
     <t>ghfsdtyfg@gmail.com</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>SetPassword</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>MobilePhone</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>hgsdhj</t>
+  </si>
+  <si>
+    <t>jhgfdsuy</t>
+  </si>
+  <si>
+    <t>hgsdtyf</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>hjgsy</t>
+  </si>
+  <si>
+    <t>EDFG123</t>
+  </si>
+  <si>
+    <t>San</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>91436</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>8489875678</t>
+  </si>
+  <si>
+    <t>teshgdfg@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -329,7 +417,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -360,6 +448,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -960,9 +1050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1046,4 +1134,133 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MyStoreProject/src/test/resources/TestData/TestData.xlsx
+++ b/MyStoreProject/src/test/resources/TestData/TestData.xlsx
@@ -287,7 +287,7 @@
     <t>8489875678</t>
   </si>
   <si>
-    <t>teshgdfg@gmail.com</t>
+    <t>hgdftfg@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -439,6 +439,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -448,8 +450,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -792,13 +792,13 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
@@ -1141,7 +1141,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1211,49 +1211,49 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="12" t="s">
         <v>86</v>
       </c>
     </row>

--- a/MyStoreProject/src/test/resources/TestData/TestData.xlsx
+++ b/MyStoreProject/src/test/resources/TestData/TestData.xlsx
@@ -248,12 +248,6 @@
     <t>Mrs</t>
   </si>
   <si>
-    <t>hgsdhj</t>
-  </si>
-  <si>
-    <t>jhgfdsuy</t>
-  </si>
-  <si>
     <t>hgsdtyf</t>
   </si>
   <si>
@@ -266,9 +260,6 @@
     <t>1985</t>
   </si>
   <si>
-    <t>hjgsy</t>
-  </si>
-  <si>
     <t>EDFG123</t>
   </si>
   <si>
@@ -287,7 +278,16 @@
     <t>8489875678</t>
   </si>
   <si>
-    <t>hgdftfg@gmail.com</t>
+    <t>hgjgrtdfrgr@gmail.com</t>
+  </si>
+  <si>
+    <t>TestUser</t>
+  </si>
+  <si>
+    <t>UserTest</t>
+  </si>
+  <si>
+    <t>ABCDEF</t>
   </si>
 </sst>
 </file>
@@ -1212,49 +1212,49 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="I2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/MyStoreProject/src/test/resources/TestData/TestData.xlsx
+++ b/MyStoreProject/src/test/resources/TestData/TestData.xlsx
@@ -278,9 +278,6 @@
     <t>8489875678</t>
   </si>
   <si>
-    <t>hgjgrtdfrgr@gmail.com</t>
-  </si>
-  <si>
     <t>TestUser</t>
   </si>
   <si>
@@ -288,6 +285,9 @@
   </si>
   <si>
     <t>ABCDEF</t>
+  </si>
+  <si>
+    <t>hjgftrgfhgt@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1140,9 +1140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1212,16 +1210,16 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>74</v>
@@ -1236,7 +1234,7 @@
         <v>77</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>78</v>

--- a/MyStoreProject/src/test/resources/TestData/TestData.xlsx
+++ b/MyStoreProject/src/test/resources/TestData/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
   <si>
     <t>TestCases</t>
   </si>
@@ -287,7 +287,13 @@
     <t>ABCDEF</t>
   </si>
   <si>
-    <t>hjgftrgfhgt@gmail.com</t>
+    <t>newtest1@gmail.com</t>
+  </si>
+  <si>
+    <t>newtest2@gmail.com</t>
+  </si>
+  <si>
+    <t>newtest3@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1138,9 +1144,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1255,9 +1263,105 @@
         <v>83</v>
       </c>
     </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MyStoreProject/src/test/resources/TestData/TestData.xlsx
+++ b/MyStoreProject/src/test/resources/TestData/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14640" windowHeight="5610" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,8 @@
     <sheet name="SearchProduct" sheetId="6" r:id="rId5"/>
     <sheet name="AccountCreationData" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -299,8 +300,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,6 +464,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -541,6 +547,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -575,6 +582,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -750,14 +758,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
@@ -773,7 +781,7 @@
     <col min="13" max="13" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>44</v>
       </c>
@@ -781,7 +789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>42</v>
       </c>
@@ -789,7 +797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>43</v>
       </c>
@@ -797,7 +805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>38</v>
       </c>
@@ -806,7 +814,7 @@
       <c r="D4" s="14"/>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -823,7 +831,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30">
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -840,7 +848,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -857,7 +865,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -874,7 +882,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -891,7 +899,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -908,7 +916,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -930,7 +938,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -945,7 +953,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -956,7 +964,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -965,7 +973,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -974,7 +982,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -983,7 +991,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1010,14 +1018,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
@@ -1026,7 +1034,7 @@
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>48</v>
       </c>
@@ -1034,7 +1042,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>50</v>
       </c>
@@ -1053,22 +1061,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>58</v>
       </c>
@@ -1083,16 +1091,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>53</v>
       </c>
@@ -1103,7 +1111,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>56</v>
       </c>
@@ -1120,19 +1128,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>56</v>
       </c>
@@ -1143,14 +1151,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -1162,14 +1170,14 @@
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>52</v>
       </c>
@@ -1216,7 +1224,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>87</v>
       </c>
@@ -1263,7 +1271,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>88</v>
       </c>
@@ -1310,7 +1318,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>89</v>
       </c>
